--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,51 +534,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H2">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I2">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J2">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.052798</v>
+        <v>2.141084</v>
       </c>
       <c r="N2">
-        <v>0.158394</v>
+        <v>6.423252</v>
       </c>
       <c r="O2">
-        <v>0.0714240621629324</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.0714240621629324</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>7.195715714286</v>
+        <v>145.932585646848</v>
       </c>
       <c r="R2">
-        <v>64.761441428574</v>
+        <v>1313.393270821632</v>
       </c>
       <c r="S2">
-        <v>0.01877573218140638</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="T2">
-        <v>0.01877573218140638</v>
+        <v>0.1648246401285819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>136.287657</v>
+        <v>143.539174</v>
       </c>
       <c r="H3">
-        <v>408.862971</v>
+        <v>430.617522</v>
       </c>
       <c r="I3">
-        <v>0.2628768458810872</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J3">
-        <v>0.2628768458810872</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6864206666666667</v>
+        <v>2.141084</v>
       </c>
       <c r="N3">
-        <v>2.059262</v>
+        <v>6.423252</v>
       </c>
       <c r="O3">
-        <v>0.9285759378370676</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9285759378370676</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>93.55066437637799</v>
+        <v>307.3294288246159</v>
       </c>
       <c r="R3">
-        <v>841.955979387402</v>
+        <v>2765.964859421544</v>
       </c>
       <c r="S3">
-        <v>0.2441011136996808</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="T3">
-        <v>0.2441011136996808</v>
+        <v>0.3471155005059974</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,232 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>143.539174</v>
+        <v>201.822474</v>
       </c>
       <c r="H4">
-        <v>430.617522</v>
+        <v>605.4674219999999</v>
       </c>
       <c r="I4">
-        <v>0.2768638492442244</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="J4">
-        <v>0.2768638492442244</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.052798</v>
+        <v>2.141084</v>
       </c>
       <c r="N4">
-        <v>0.158394</v>
+        <v>6.423252</v>
       </c>
       <c r="O4">
-        <v>0.0714240621629324</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.0714240621629324</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>7.578581308852001</v>
+        <v>432.1188699218159</v>
       </c>
       <c r="R4">
-        <v>68.20723177966801</v>
+        <v>3889.069829296343</v>
       </c>
       <c r="S4">
-        <v>0.01977474077908823</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="T4">
-        <v>0.01977474077908822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>143.539174</v>
-      </c>
-      <c r="H5">
-        <v>430.617522</v>
-      </c>
-      <c r="I5">
-        <v>0.2768638492442244</v>
-      </c>
-      <c r="J5">
-        <v>0.2768638492442244</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.6864206666666667</v>
-      </c>
-      <c r="N5">
-        <v>2.059262</v>
-      </c>
-      <c r="O5">
-        <v>0.9285759378370676</v>
-      </c>
-      <c r="P5">
-        <v>0.9285759378370676</v>
-      </c>
-      <c r="Q5">
-        <v>98.52825550986267</v>
-      </c>
-      <c r="R5">
-        <v>886.754299588764</v>
-      </c>
-      <c r="S5">
-        <v>0.2570891084651362</v>
-      </c>
-      <c r="T5">
-        <v>0.2570891084651361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>238.6199593333333</v>
-      </c>
-      <c r="H6">
-        <v>715.859878</v>
-      </c>
-      <c r="I6">
-        <v>0.4602593048746885</v>
-      </c>
-      <c r="J6">
-        <v>0.4602593048746884</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.052798</v>
-      </c>
-      <c r="N6">
-        <v>0.158394</v>
-      </c>
-      <c r="O6">
-        <v>0.0714240621629324</v>
-      </c>
-      <c r="P6">
-        <v>0.0714240621629324</v>
-      </c>
-      <c r="Q6">
-        <v>12.59865661288133</v>
-      </c>
-      <c r="R6">
-        <v>113.387909515932</v>
-      </c>
-      <c r="S6">
-        <v>0.0328735892024378</v>
-      </c>
-      <c r="T6">
-        <v>0.0328735892024378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>238.6199593333333</v>
-      </c>
-      <c r="H7">
-        <v>715.859878</v>
-      </c>
-      <c r="I7">
-        <v>0.4602593048746885</v>
-      </c>
-      <c r="J7">
-        <v>0.4602593048746884</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.6864206666666667</v>
-      </c>
-      <c r="N7">
-        <v>2.059262</v>
-      </c>
-      <c r="O7">
-        <v>0.9285759378370676</v>
-      </c>
-      <c r="P7">
-        <v>0.9285759378370676</v>
-      </c>
-      <c r="Q7">
-        <v>163.7936715655595</v>
-      </c>
-      <c r="R7">
-        <v>1474.143044090036</v>
-      </c>
-      <c r="S7">
-        <v>0.4273857156722506</v>
-      </c>
-      <c r="T7">
-        <v>0.4273857156722506</v>
+        <v>0.4880598593654206</v>
       </c>
     </row>
   </sheetData>
